--- a/Artigo 4/Supplementary Appendix A/dataset_statistics.xlsx
+++ b/Artigo 4/Supplementary Appendix A/dataset_statistics.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/27dfba7ba8e15536/Área de Trabalho/Material Suplementar/Artigo 4/Supplementary Appendix A/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/27dfba7ba8e15536/Área de Trabalho/Material_Suplementar/Artigo 4/Supplementary Appendix A/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{CB208032-584E-4BC3-9B3D-6F8E95D0D1AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A7D7E1E0-6500-4D7F-8A7E-0D3658C647A7}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A7D7E1E0-6500-4D7F-8A7E-0D3658C647A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -3374,7 +3374,7 @@
   <dimension ref="A1:H306"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
